--- a/upload/xls/project.xlsx
+++ b/upload/xls/project.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8520"/>
+    <workbookView windowWidth="19770" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="项目" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>项目年度</t>
   </si>
@@ -50,6 +50,9 @@
     <t>是否军工</t>
   </si>
   <si>
+    <t>第一负责人</t>
+  </si>
+  <si>
     <t>完成周期</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>张捷</t>
+  </si>
+  <si>
+    <t>唐蓉生</t>
   </si>
   <si>
     <t>无</t>
@@ -206,8 +212,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -220,6 +226,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -227,37 +240,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -271,45 +306,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -323,17 +346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -341,25 +363,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,13 +378,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,31 +498,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,133 +552,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +569,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -590,25 +605,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -617,8 +623,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -649,16 +655,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -671,10 +677,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,142 +689,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1142,10 +1145,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -1160,13 +1163,13 @@
     <col min="8" max="8" width="9.625" customWidth="1"/>
     <col min="9" max="9" width="13.125" customWidth="1"/>
     <col min="10" max="10" width="9.625" customWidth="1"/>
-    <col min="11" max="11" width="9.25" customWidth="1"/>
-    <col min="12" max="12" width="16.125" customWidth="1"/>
-    <col min="13" max="13" width="11.75" customWidth="1"/>
-    <col min="14" max="14" width="19.25" customWidth="1"/>
+    <col min="11" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="11.75" customWidth="1"/>
+    <col min="15" max="15" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" customHeight="1" spans="1:15">
+    <row r="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1212,25 +1215,28 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" customHeight="1" spans="1:16">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2">
         <v>9</v>
@@ -1245,9 +1251,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2">
         <v>1</v>
       </c>
     </row>
@@ -1276,36 +1285,36 @@
   <sheetData>
     <row r="1" ht="21" customHeight="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1313,20 +1322,20 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1334,20 +1343,20 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D4" s="1">
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1355,20 +1364,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D5" s="1">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>35</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1376,20 +1385,20 @@
         <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="1">
         <v>4</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1397,13 +1406,13 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F7" s="1"/>
     </row>
@@ -1412,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1">
         <v>6</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F8" s="1"/>
     </row>
@@ -1427,13 +1436,13 @@
         <v>21</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1">
         <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1"/>
     </row>
@@ -1442,13 +1451,13 @@
         <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F10" s="1"/>
     </row>
@@ -1457,13 +1466,13 @@
         <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1">
         <v>12</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1472,13 +1481,13 @@
         <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D12" s="1">
         <v>13</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1487,13 +1496,13 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D13" s="1">
         <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="1"/>
     </row>
@@ -1502,13 +1511,13 @@
         <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1">
         <v>15</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1"/>
     </row>
@@ -1517,13 +1526,13 @@
         <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D15" s="1">
         <v>16</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F15" s="1"/>
     </row>
@@ -1532,7 +1541,7 @@
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1540,7 +1549,7 @@
         <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1548,7 +1557,7 @@
         <v>30</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1556,7 +1565,7 @@
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1564,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1572,7 +1581,7 @@
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
